--- a/Keyboard/J73GL/2_Assemble_PCBA/J73GL_order_details.xlsx
+++ b/Keyboard/J73GL/2_Assemble_PCBA/J73GL_order_details.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salicylic_acid3\Documents\自キ設計_パブリック\GL516_Exemple\Keyboard\J73GL\2_Assemble_PCBA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A5630C-FEFB-4527-82B3-94C016FBA0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0968B1CA-8605-4F50-98CD-90F70B97BB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="4185" windowWidth="18645" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -1245,14 +1240,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="43454" t="46269" r="43019" b="44122"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -1365,7 +1360,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1426,14 +1421,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="43454" t="46269" r="43019" b="44122"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -1485,7 +1480,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1546,7 +1541,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1668,14 +1663,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="43454" t="46269" r="43019" b="44122"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -1727,14 +1722,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="43454" t="46269" r="43019" b="44122"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -1786,14 +1781,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="43454" t="46269" r="43019" b="44122"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -1845,14 +1840,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="43454" t="46269" r="43019" b="44122"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -1904,7 +1899,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1965,7 +1960,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2026,7 +2021,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2087,7 +2082,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2209,7 +2204,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2336,7 +2331,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2397,7 +2392,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2458,7 +2453,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2519,7 +2514,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3426,7 +3421,7 @@
   <dimension ref="A1:A111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+      <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8573,6 +8568,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
